--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:43:04+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-14T12:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T12:20:05+00:00</t>
+    <t>2023-02-14T14:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:23+00:00</t>
+    <t>2023-02-14T14:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:42+00:00</t>
+    <t>2023-02-14T16:15:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T16:15:08+00:00</t>
+    <t>2023-02-15T07:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T07:08:17+00:00</t>
+    <t>2023-02-15T07:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T07:09:22+00:00</t>
+    <t>2023-02-15T09:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:10:23+00:00</t>
+    <t>2023-02-15T09:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:11:23+00:00</t>
+    <t>2023-02-15T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:18:52+00:00</t>
+    <t>2023-02-15T09:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:19:32+00:00</t>
+    <t>2023-02-15T10:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:30:33+00:00</t>
+    <t>2023-02-15T10:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:39:10+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-15T14:53:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T14:53:45+00:00</t>
+    <t>2023-02-15T15:02:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T15:02:29+00:00</t>
+    <t>2023-02-15T19:34:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T19:34:16+00:00</t>
+    <t>2023-02-16T07:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:18:21+00:00</t>
+    <t>2023-02-16T07:24:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:24:24+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T07:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:39:57+00:00</t>
+    <t>2023-02-16T08:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:15:30+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:04:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:04:40+00:00</t>
+    <t>2023-02-16T09:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:05:53+00:00</t>
+    <t>2023-02-16T09:13:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:13:52+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:15:00+00:00</t>
+    <t>2023-02-16T13:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:21:24+00:00</t>
+    <t>2023-02-16T13:29:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:29:44+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-16T14:44:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:44:06+00:00</t>
+    <t>2023-02-16T14:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:49:30+00:00</t>
+    <t>2023-02-16T14:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:51:09+00:00</t>
+    <t>2023-02-16T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:57:31+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T04:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T04:54:17+00:00</t>
+    <t>2023-02-17T05:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:00:13+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:03:48+00:00</t>
+    <t>2023-02-17T06:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:10:41+00:00</t>
+    <t>2023-02-17T06:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:12:18+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
